--- a/results/I3_N5_M3_T45_C200_DepCentral_s2_P3_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepCentral_s2_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.55436508284902</v>
+        <v>1284.565031796819</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.006999969482421875</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.71436508284903</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.81338514960181</v>
+        <v>7.821303166844173</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.81338514960181</v>
+        <v>4.283234758917612</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.84</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -744,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -835,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -918,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15.66483080554378</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.66483080554379</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>40.17182228993174</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.99312545677591</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.95858503259002</v>
+        <v>3.516731437002264</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.27636021569351</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -974,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.47531646959229</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1034,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1048,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1062,15 +1073,99 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>43.65499999999986</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -1184,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>37.03499999999985</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -1195,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>41.29499999999985</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
@@ -1206,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.50999999999986</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>43.86999999999985</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -1228,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>154.92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -1239,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>152.65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1261,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>156.385</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -1272,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>41.16999999999935</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18">
@@ -1294,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.71499999999935</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19">
@@ -1305,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37.85999999999935</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20">
@@ -1316,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>47.65</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21">
@@ -1327,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>45.31999999999935</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22">
@@ -1338,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3399999999997</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -1349,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>159.2049999999997</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
@@ -1360,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4299999999997</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
@@ -1371,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -1382,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9949999999997</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>207.155</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -1404,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>197</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -1415,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>202.505</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -1426,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>202.17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1437,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>210.59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -1448,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999999997</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
@@ -1459,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2049999999997</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34">
@@ -1470,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.4299999999997</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35">
@@ -1481,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36">
@@ -1492,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.9949999999997</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
@@ -1558,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>207.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1569,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>202.505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1591,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>202.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1602,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>210.59</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1660,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1693,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1759,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1781,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1792,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1803,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>10.59</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1861,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1872,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1883,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1894,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1905,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1916,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1927,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1938,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1949,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2070,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2081,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2092,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2103,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -2114,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2166,10 +2261,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2177,10 +2272,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2188,12 +2283,78 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
